--- a/output/3_Regression/h19_test/h19coef_rf.xlsx
+++ b/output/3_Regression/h19_test/h19coef_rf.xlsx
@@ -31,85 +31,85 @@
     <t>Wheat (US$ per ton)_lag_4</t>
   </si>
   <si>
+    <t>Wheat (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_2</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_1</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_4</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
+  </si>
+  <si>
     <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
   </si>
   <si>
-    <t>Wheat (US$ per ton)_lag_3</t>
+    <t>Soybean oil (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_4</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_1</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_2</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_3</t>
   </si>
   <si>
     <t>Net International Reserves (mill $)_lag_2</t>
   </si>
   <si>
-    <t>Crude oil (US$ per barrel)_lag_1</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_2</t>
+    <t>Corn  (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_2</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_3</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_4</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_4</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_3</t>
   </si>
   <si>
     <t>Net International Reserves (mill $)_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_4</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_1</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_2</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_3</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_3</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_4</t>
   </si>
   <si>
     <t>Net International Reserves (mill $)_lag_1</t>
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.1363375450613706</v>
+        <v>0.1208804658733026</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -506,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.08261205331167489</v>
+        <v>0.08251288886976892</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -517,117 +517,117 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.08220572106958433</v>
+        <v>0.08117539364641622</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.0661321574074423</v>
+        <v>0.07013534114877548</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.06461072827872802</v>
+        <v>0.0679759574933524</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.05398225126274497</v>
+        <v>0.05747426097627731</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.05055084072165591</v>
+        <v>0.05312322999767188</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.04989184123971151</v>
+        <v>0.05258751342094692</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.04801582076259423</v>
+        <v>0.04941543326742632</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.03814607333647174</v>
+        <v>0.03362280569120331</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.03709763540719044</v>
+        <v>0.03320683446239956</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.03220884632587439</v>
+        <v>0.03235983377213571</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.03058647366211463</v>
+        <v>0.02896053732658368</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -638,7 +638,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02976969349145905</v>
+        <v>0.02769452950713361</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -649,7 +649,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.02738100432082115</v>
+        <v>0.02724727161942556</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -660,18 +660,18 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.02560799206736115</v>
+        <v>0.02579114738352004</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.0215538782864915</v>
+        <v>0.01952464961384918</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -682,7 +682,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.01861541711893551</v>
+        <v>0.01868588042071109</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -693,128 +693,128 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.01721578596364446</v>
+        <v>0.01795828466725849</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.01265402760275562</v>
+        <v>0.01425453112361276</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.01179783504641951</v>
+        <v>0.01313447259432322</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.01049525217579016</v>
+        <v>0.01188058889826687</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.009943223648069157</v>
+        <v>0.01035482371197152</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.008277663562176562</v>
+        <v>0.008890743017617083</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.00672490521428032</v>
+        <v>0.008802937759037762</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.006558940642194216</v>
+        <v>0.00791379824947322</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.00649357287381434</v>
+        <v>0.007281309788188403</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.006290768753556837</v>
+        <v>0.00636195282423195</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.006047490882977673</v>
+        <v>0.005849186290800585</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.001527978267521052</v>
+        <v>0.004054634997397747</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -825,7 +825,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.0004190284305212843</v>
+        <v>0.0005737982834672805</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -836,7 +836,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.0002475538040524806</v>
+        <v>0.000314963303453302</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19coef_rf.xlsx
+++ b/output/3_Regression/h19_test/h19coef_rf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Var</t>
   </si>
@@ -22,100 +22,112 @@
     <t>Importance Score</t>
   </si>
   <si>
+    <t>Soybean oil (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_3</t>
+  </si>
+  <si>
     <t>Wheat (US$ per ton)_lag_2</t>
   </si>
   <si>
+    <t>Soybean oil (US$ per ton)_lag_2</t>
+  </si>
+  <si>
     <t>Wheat (US$ per ton)_lag_1</t>
   </si>
   <si>
     <t>Wheat (US$ per ton)_lag_4</t>
   </si>
   <si>
-    <t>Wheat (US$ per ton)_lag_3</t>
+    <t>Exchange rate_lag_1</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_4</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_4</t>
   </si>
   <si>
     <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
   </si>
   <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_2</t>
+  </si>
+  <si>
     <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
   </si>
   <si>
-    <t>Soybean oil (US$ per ton)_lag_2</t>
+    <t>Exchange rate_lag_3</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_1</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_1</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_2</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_4</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_3</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_4</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_1</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_2</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_3</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_3</t>
   </si>
   <si>
     <t>Monetary Policy Rate_lag_2</t>
   </si>
   <si>
-    <t>Crude oil (US$ per barrel)_lag_1</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_4</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_3</t>
-  </si>
-  <si>
     <t>Crude oil (US$ per barrel)_lag_4</t>
   </si>
   <si>
-    <t>Real Minimum Wage (Index)_lag_1</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_4</t>
+    <t>Net International Reserves (mill $)_lag_1</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_2</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_4</t>
   </si>
   <si>
     <t>Real Minimum Wage (Index)_lag_3</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_2</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_3</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_4</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_4</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_3</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_3</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_1</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_1</t>
   </si>
 </sst>
 </file>
@@ -473,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,354 +501,398 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.1208804658733026</v>
+        <v>0.09420128574564787</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.08251288886976892</v>
+        <v>0.08839813070369353</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.08117539364641622</v>
+        <v>0.07421863698239872</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.07013534114877548</v>
+        <v>0.07204785091643066</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.0679759574933524</v>
+        <v>0.05315070029531595</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.05747426097627731</v>
+        <v>0.05135922681438385</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.05312322999767188</v>
+        <v>0.04493539088406528</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.05258751342094692</v>
+        <v>0.0428947319360139</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.04941543326742632</v>
+        <v>0.03368648261522754</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.03362280569120331</v>
+        <v>0.03295822337372222</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.03320683446239956</v>
+        <v>0.03109371565900775</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.03235983377213571</v>
+        <v>0.02855845264855411</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.02896053732658368</v>
+        <v>0.02710366516626024</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02769452950713361</v>
+        <v>0.02676816140557005</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.02724727161942556</v>
+        <v>0.02548223524687203</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.02579114738352004</v>
+        <v>0.02466855987039304</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.01952464961384918</v>
+        <v>0.02159292444776213</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.01868588042071109</v>
+        <v>0.01806148747160597</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.01795828466725849</v>
+        <v>0.01706174987058908</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.01425453112361276</v>
+        <v>0.0156200123785648</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.01313447259432322</v>
+        <v>0.01555528090004649</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.01188058889826687</v>
+        <v>0.0136558899547536</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.01035482371197152</v>
+        <v>0.01256919981463481</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.008890743017617083</v>
+        <v>0.01225449986644012</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.008802937759037762</v>
+        <v>0.01182872642112911</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.00791379824947322</v>
+        <v>0.01146456755494219</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.007281309788188403</v>
+        <v>0.01120762604322423</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.00636195282423195</v>
+        <v>0.01112039445247413</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.005849186290800585</v>
+        <v>0.0109844025961316</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.004054634997397747</v>
+        <v>0.01087085544935431</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.0005737982834672805</v>
+        <v>0.01031379237553201</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.000314963303453302</v>
+        <v>0.01003801259042194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0.01001137976378326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0.008449535565759354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>0.008256872661205804</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>0.007557339558088243</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19coef_rf.xlsx
+++ b/output/3_Regression/h19_test/h19coef_rf.xlsx
@@ -22,112 +22,112 @@
     <t>Importance Score</t>
   </si>
   <si>
+    <t>Wheat (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_1</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
+  </si>
+  <si>
     <t>Soybean oil (US$ per ton)_lag_1</t>
   </si>
   <si>
-    <t>Wheat (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_2</t>
+    <t>Crude oil (US$ per barrel)_lag_2</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_1</t>
   </si>
   <si>
     <t>Soybean oil (US$ per ton)_lag_2</t>
   </si>
   <si>
-    <t>Wheat (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_4</t>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_3</t>
   </si>
   <si>
     <t>Exchange rate_lag_1</t>
   </si>
   <si>
-    <t>Soybean oil (US$ per ton)_lag_3</t>
+    <t>Net International Reserves (mill $)_lag_4</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_4</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_3</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_2</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_4</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_2</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_1</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_3</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_1</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_2</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_2</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_3</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_3</t>
   </si>
   <si>
     <t>Exchange rate_lag_4</t>
   </si>
   <si>
-    <t>Soybean oil (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_2</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
-  </si>
-  <si>
     <t>Exchange rate_lag_3</t>
   </si>
   <si>
-    <t>Crude oil (US$ per barrel)_lag_1</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_1</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_4</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_3</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_1</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_3</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_3</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_2</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_4</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_1</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_2</t>
-  </si>
-  <si>
     <t>Real Minimum Wage (Index)_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_3</t>
   </si>
 </sst>
 </file>
@@ -501,24 +501,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.09420128574564787</v>
+        <v>0.07321942546979701</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.08839813070369353</v>
+        <v>0.06567150147719443</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -529,249 +529,249 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.07421863698239872</v>
+        <v>0.06553661905395168</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.07204785091643066</v>
+        <v>0.06194716328077671</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.05315070029531595</v>
+        <v>0.04506529571828714</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.05135922681438385</v>
+        <v>0.03852683102566052</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.04493539088406528</v>
+        <v>0.03657223830860952</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.0428947319360139</v>
+        <v>0.03627644103537521</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.03368648261522754</v>
+        <v>0.03262732701938521</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.03295822337372222</v>
+        <v>0.03238030876304825</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.03109371565900775</v>
+        <v>0.03151495590196674</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.02855845264855411</v>
+        <v>0.03077143431459973</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.02710366516626024</v>
+        <v>0.02995306881130294</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02676816140557005</v>
+        <v>0.02806013657528851</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.02548223524687203</v>
+        <v>0.02673985472882549</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.02466855987039304</v>
+        <v>0.02442686604717791</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.02159292444776213</v>
+        <v>0.02412540575337119</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.01806148747160597</v>
+        <v>0.0240391968160863</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.01706174987058908</v>
+        <v>0.02313946042980352</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.0156200123785648</v>
+        <v>0.02157075275103699</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.01555528090004649</v>
+        <v>0.0208930599659088</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.0136558899547536</v>
+        <v>0.02036224077277314</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.01256919981463481</v>
+        <v>0.02035420199359613</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.01225449986644012</v>
+        <v>0.01902478359811761</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.01182872642112911</v>
+        <v>0.01813199836849125</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -782,117 +782,117 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.01146456755494219</v>
+        <v>0.01611406889156592</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.01120762604322423</v>
+        <v>0.0158632748340556</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.01112039445247413</v>
+        <v>0.015412129497954</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.0109844025961316</v>
+        <v>0.01533925415956837</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.01087085544935431</v>
+        <v>0.01488021309451711</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.01031379237553201</v>
+        <v>0.01436431692000305</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.01003801259042194</v>
+        <v>0.01249064146191031</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.01001137976378326</v>
+        <v>0.01215369330298815</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.008449535565759354</v>
+        <v>0.01193727584076333</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.008256872661205804</v>
+        <v>0.01167583018477204</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.007557339558088243</v>
+        <v>0.008838733831470148</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19coef_rf.xlsx
+++ b/output/3_Regression/h19_test/h19coef_rf.xlsx
@@ -22,112 +22,112 @@
     <t>Importance Score</t>
   </si>
   <si>
+    <t>Soybean oil (US$ per ton)_lag_1</t>
+  </si>
+  <si>
     <t>Wheat (US$ per ton)_lag_3</t>
   </si>
   <si>
+    <t>Wheat (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_2</t>
+  </si>
+  <si>
     <t>Wheat (US$ per ton)_lag_1</t>
   </si>
   <si>
-    <t>Wheat (US$ per ton)_lag_2</t>
-  </si>
-  <si>
     <t>Wheat (US$ per ton)_lag_4</t>
   </si>
   <si>
+    <t>Exchange rate_lag_1</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_4</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_2</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_3</t>
+  </si>
+  <si>
     <t>Crude oil (US$ per barrel)_lag_1</t>
   </si>
   <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_1</t>
+    <t>Monetary Policy Rate_lag_1</t>
   </si>
   <si>
     <t>Crude oil (US$ per barrel)_lag_2</t>
   </si>
   <si>
-    <t>Monetary Policy Rate_lag_1</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_1</t>
+    <t>Corn  (US$ per ton)_lag_2</t>
   </si>
   <si>
     <t>Net International Reserves (mill $)_lag_4</t>
   </si>
   <si>
+    <t>Crude oil (US$ per barrel)_lag_3</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_4</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_1</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_2</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_3</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_3</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_2</t>
+  </si>
+  <si>
     <t>Crude oil (US$ per barrel)_lag_4</t>
   </si>
   <si>
-    <t>Crude oil (US$ per barrel)_lag_3</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_2</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_4</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_3</t>
-  </si>
-  <si>
     <t>Net International Reserves (mill $)_lag_1</t>
   </si>
   <si>
-    <t>Net International Reserves (mill $)_lag_3</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_1</t>
-  </si>
-  <si>
     <t>Real Minimum Wage (Index)_lag_2</t>
   </si>
   <si>
-    <t>Exchange rate_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_3</t>
+    <t>Real Minimum Wage (Index)_lag_4</t>
   </si>
   <si>
     <t>Real Minimum Wage (Index)_lag_3</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_4</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_3</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_4</t>
   </si>
 </sst>
 </file>
@@ -501,24 +501,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.07321942546979701</v>
+        <v>0.09420128574564787</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.06567150147719443</v>
+        <v>0.08839813070369353</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -529,249 +529,249 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.06553661905395168</v>
+        <v>0.07421863698239872</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.06194716328077671</v>
+        <v>0.07204785091643066</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.04506529571828714</v>
+        <v>0.05315070029531595</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.03852683102566052</v>
+        <v>0.05135922681438385</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.03657223830860952</v>
+        <v>0.04493539088406528</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.03627644103537521</v>
+        <v>0.0428947319360139</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.03262732701938521</v>
+        <v>0.03368648261522754</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.03238030876304825</v>
+        <v>0.03295822337372222</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.03151495590196674</v>
+        <v>0.03109371565900775</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.03077143431459973</v>
+        <v>0.02855845264855411</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.02995306881130294</v>
+        <v>0.02710366516626024</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02806013657528851</v>
+        <v>0.02676816140557005</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.02673985472882549</v>
+        <v>0.02548223524687203</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.02442686604717791</v>
+        <v>0.02466855987039304</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.02412540575337119</v>
+        <v>0.02159292444776213</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.0240391968160863</v>
+        <v>0.01806148747160597</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.02313946042980352</v>
+        <v>0.01706174987058908</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.02157075275103699</v>
+        <v>0.0156200123785648</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.0208930599659088</v>
+        <v>0.01555528090004649</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.02036224077277314</v>
+        <v>0.0136558899547536</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.02035420199359613</v>
+        <v>0.01256919981463481</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.01902478359811761</v>
+        <v>0.01225449986644012</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.01813199836849125</v>
+        <v>0.01182872642112911</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -782,117 +782,117 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.01611406889156592</v>
+        <v>0.01146456755494219</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.0158632748340556</v>
+        <v>0.01120762604322423</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.015412129497954</v>
+        <v>0.01112039445247413</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.01533925415956837</v>
+        <v>0.0109844025961316</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.01488021309451711</v>
+        <v>0.01087085544935431</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.01436431692000305</v>
+        <v>0.01031379237553201</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.01249064146191031</v>
+        <v>0.01003801259042194</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.01215369330298815</v>
+        <v>0.01001137976378326</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.01193727584076333</v>
+        <v>0.008449535565759354</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.01167583018477204</v>
+        <v>0.008256872661205804</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.008838733831470148</v>
+        <v>0.007557339558088243</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19coef_rf.xlsx
+++ b/output/3_Regression/h19_test/h19coef_rf.xlsx
@@ -22,112 +22,112 @@
     <t>Importance Score</t>
   </si>
   <si>
+    <t>Wheat (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_1</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_1</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_2</t>
+  </si>
+  <si>
     <t>Soybean oil (US$ per ton)_lag_1</t>
   </si>
   <si>
-    <t>Wheat (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_2</t>
-  </si>
-  <si>
     <t>Soybean oil (US$ per ton)_lag_2</t>
   </si>
   <si>
-    <t>Wheat (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_4</t>
+    <t>Soybean oil (US$ per ton)_lag_3</t>
   </si>
   <si>
     <t>Exchange rate_lag_1</t>
   </si>
   <si>
-    <t>Soybean oil (US$ per ton)_lag_3</t>
+    <t>Monetary Policy Rate_lag_2</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_4</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_4</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_3</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_1</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_4</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_3</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_2</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_3</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_2</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_1</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_3</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_2</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_3</t>
   </si>
   <si>
     <t>Exchange rate_lag_4</t>
   </si>
   <si>
-    <t>Soybean oil (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_2</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_3</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_1</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_1</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_4</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_3</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_1</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_3</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_3</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_2</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_4</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_1</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_2</t>
-  </si>
-  <si>
     <t>Real Minimum Wage (Index)_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_3</t>
   </si>
 </sst>
 </file>
@@ -501,398 +501,398 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.09420128574564787</v>
+        <v>0.0729972771616773</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.08839813070369353</v>
+        <v>0.06532942702107723</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.07421863698239872</v>
+        <v>0.06376730993282355</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.07204785091643066</v>
+        <v>0.0626729592963137</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.05315070029531595</v>
+        <v>0.04646466786327912</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.05135922681438385</v>
+        <v>0.0394746095885448</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.04493539088406528</v>
+        <v>0.03791146766092759</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.0428947319360139</v>
+        <v>0.03633328526023585</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.03368648261522754</v>
+        <v>0.03484863943967537</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.03295822337372222</v>
+        <v>0.03147637169332709</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.03109371565900775</v>
+        <v>0.03095266479584157</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.02855845264855411</v>
+        <v>0.02946947090292252</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.02710366516626024</v>
+        <v>0.02942654780540711</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02676816140557005</v>
+        <v>0.02883006139368998</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.02548223524687203</v>
+        <v>0.02725737767741115</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.02466855987039304</v>
+        <v>0.02486856202041042</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.02159292444776213</v>
+        <v>0.02365052736780043</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.01806148747160597</v>
+        <v>0.02335864312823195</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.01706174987058908</v>
+        <v>0.02333820313135207</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.0156200123785648</v>
+        <v>0.02005830248738119</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.01555528090004649</v>
+        <v>0.01962316031645609</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.0136558899547536</v>
+        <v>0.01884220794650006</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.01256919981463481</v>
+        <v>0.01843781228733668</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.01225449986644012</v>
+        <v>0.01814444571779983</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.01182872642112911</v>
+        <v>0.0169098773096743</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.01146456755494219</v>
+        <v>0.01665065346205006</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.01120762604322423</v>
+        <v>0.01652526119787614</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.01112039445247413</v>
+        <v>0.01542160570641555</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.0109844025961316</v>
+        <v>0.01522654171762401</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.01087085544935431</v>
+        <v>0.01507631239850659</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.01031379237553201</v>
+        <v>0.01493936311386229</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.01003801259042194</v>
+        <v>0.01387391577294635</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.01001137976378326</v>
+        <v>0.01386168582641138</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.008449535565759354</v>
+        <v>0.01290214217652527</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.008256872661205804</v>
+        <v>0.01277229132725471</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.007557339558088243</v>
+        <v>0.008306348094430888</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19coef_rf.xlsx
+++ b/output/3_Regression/h19_test/h19coef_rf.xlsx
@@ -22,49 +22,94 @@
     <t>Importance Score</t>
   </si>
   <si>
+    <t>Soybean oil (US$ per ton)_lag_1</t>
+  </si>
+  <si>
     <t>Wheat (US$ per ton)_lag_3</t>
   </si>
   <si>
     <t>Wheat (US$ per ton)_lag_2</t>
   </si>
   <si>
+    <t>Soybean oil (US$ per ton)_lag_2</t>
+  </si>
+  <si>
     <t>Wheat (US$ per ton)_lag_1</t>
   </si>
   <si>
     <t>Wheat (US$ per ton)_lag_4</t>
   </si>
   <si>
+    <t>Exchange rate_lag_1</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_4</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_2</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_3</t>
+  </si>
+  <si>
     <t>Crude oil (US$ per barrel)_lag_1</t>
   </si>
   <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
-  </si>
-  <si>
     <t>Monetary Policy Rate_lag_1</t>
   </si>
   <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
-  </si>
-  <si>
     <t>Crude oil (US$ per barrel)_lag_2</t>
   </si>
   <si>
-    <t>Soybean oil (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_1</t>
+    <t>Corn  (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_4</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_3</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_4</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_1</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_2</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_3</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_3</t>
   </si>
   <si>
     <t>Monetary Policy Rate_lag_2</t>
@@ -73,61 +118,16 @@
     <t>Crude oil (US$ per barrel)_lag_4</t>
   </si>
   <si>
-    <t>Net International Reserves (mill $)_lag_4</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_3</t>
-  </si>
-  <si>
     <t>Net International Reserves (mill $)_lag_1</t>
   </si>
   <si>
-    <t>Monetary Policy Rate_lag_4</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_3</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_3</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_4</t>
-  </si>
-  <si>
     <t>Real Minimum Wage (Index)_lag_2</t>
   </si>
   <si>
-    <t>Real Minimum Wage (Index)_lag_1</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_3</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_2</t>
+    <t>Real Minimum Wage (Index)_lag_4</t>
   </si>
   <si>
     <t>Real Minimum Wage (Index)_lag_3</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_4</t>
   </si>
 </sst>
 </file>
@@ -501,398 +501,398 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.0729972771616773</v>
+        <v>0.09420128574564787</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.06532942702107723</v>
+        <v>0.08839813070369353</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.06376730993282355</v>
+        <v>0.07421863698239872</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.0626729592963137</v>
+        <v>0.07204785091643066</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.04646466786327912</v>
+        <v>0.05315070029531595</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.0394746095885448</v>
+        <v>0.05135922681438385</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.03791146766092759</v>
+        <v>0.04493539088406528</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.03633328526023585</v>
+        <v>0.0428947319360139</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.03484863943967537</v>
+        <v>0.03368648261522754</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.03147637169332709</v>
+        <v>0.03295822337372222</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.03095266479584157</v>
+        <v>0.03109371565900775</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.02946947090292252</v>
+        <v>0.02855845264855411</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.02942654780540711</v>
+        <v>0.02710366516626024</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02883006139368998</v>
+        <v>0.02676816140557005</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.02725737767741115</v>
+        <v>0.02548223524687203</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.02486856202041042</v>
+        <v>0.02466855987039304</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.02365052736780043</v>
+        <v>0.02159292444776213</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.02335864312823195</v>
+        <v>0.01806148747160597</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.02333820313135207</v>
+        <v>0.01706174987058908</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.02005830248738119</v>
+        <v>0.0156200123785648</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.01962316031645609</v>
+        <v>0.01555528090004649</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.01884220794650006</v>
+        <v>0.0136558899547536</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.01843781228733668</v>
+        <v>0.01256919981463481</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.01814444571779983</v>
+        <v>0.01225449986644012</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.0169098773096743</v>
+        <v>0.01182872642112911</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.01665065346205006</v>
+        <v>0.01146456755494219</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.01652526119787614</v>
+        <v>0.01120762604322423</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.01542160570641555</v>
+        <v>0.01112039445247413</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.01522654171762401</v>
+        <v>0.0109844025961316</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.01507631239850659</v>
+        <v>0.01087085544935431</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.01493936311386229</v>
+        <v>0.01031379237553201</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.01387391577294635</v>
+        <v>0.01003801259042194</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.01386168582641138</v>
+        <v>0.01001137976378326</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.01290214217652527</v>
+        <v>0.008449535565759354</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.01277229132725471</v>
+        <v>0.008256872661205804</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.008306348094430888</v>
+        <v>0.007557339558088243</v>
       </c>
     </row>
   </sheetData>
